--- a/Epidemiología/total_epnm.xlsx
+++ b/Epidemiología/total_epnm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiologia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01DDE1-CE74-4B60-9DA0-0FC3125BCB3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135C151E-8C5A-41D8-A9F2-F08B58929810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
   <si>
     <t>Sexo</t>
   </si>
@@ -139,18 +139,12 @@
     <t>Rate-3-year</t>
   </si>
   <si>
-    <t>GCO (IARC, WHO)</t>
-  </si>
-  <si>
     <t>Mundo, 2018</t>
   </si>
   <si>
     <t>Europa, 2018</t>
   </si>
   <si>
-    <t>ECIS (EU+EFTA)</t>
-  </si>
-  <si>
     <t>ASR-E new</t>
   </si>
   <si>
@@ -217,13 +211,16 @@
     <t>liver</t>
   </si>
   <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>higado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSCBS </t>
+    <t>GCO (IARC, WHO), quitando PNM</t>
+  </si>
+  <si>
+    <t>MSCBS, quitando PNM en la web</t>
+  </si>
+  <si>
+    <t>ECIS (Europe), ya sin PNM</t>
+  </si>
+  <si>
+    <t>ECIS, ya sin PNM</t>
   </si>
 </sst>
 </file>
@@ -344,7 +341,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -356,12 +353,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,27 +366,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,9 +373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,8 +387,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1124,423 +1118,399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D18" sqref="D18:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="2"/>
     <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="29"/>
-    <col min="4" max="4" width="4.5" style="29" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="29"/>
-    <col min="9" max="9" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.6640625" style="2"/>
+    <col min="3" max="7" width="10.83203125" style="19"/>
+    <col min="8" max="8" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+    <row r="1" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="22">
+        <v>8818685</v>
+      </c>
+      <c r="D5" s="16">
+        <v>229</v>
+      </c>
+      <c r="E5" s="16">
+        <v>204.7</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2059673</v>
+      </c>
+      <c r="D6" s="34">
+        <v>572.9</v>
+      </c>
+      <c r="E6" s="16">
+        <v>302.7</v>
+      </c>
+      <c r="F6" s="17">
+        <v>436</v>
+      </c>
+      <c r="G6" s="17">
+        <v>651.70000000000005</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="31" t="s">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="33">
+        <v>142353</v>
+      </c>
+      <c r="D7" s="34">
+        <v>625.6</v>
+      </c>
+      <c r="E7" s="16">
+        <v>309.7</v>
+      </c>
+      <c r="F7" s="17">
+        <v>444.7</v>
+      </c>
+      <c r="G7" s="17">
+        <v>658.6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="22">
+        <v>160198</v>
+      </c>
+      <c r="D8" s="16">
+        <v>693.7</v>
+      </c>
+      <c r="E8" s="16">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="F8" s="17">
+        <v>477.1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>725.5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="E11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="F11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="24">
+        <v>8218216</v>
+      </c>
+      <c r="D12" s="17">
+        <v>217.3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>175.6</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1851644</v>
+      </c>
+      <c r="D13" s="17">
+        <v>481.8</v>
+      </c>
+      <c r="E13" s="17">
+        <v>242.7</v>
+      </c>
+      <c r="F13" s="17">
+        <v>332.6</v>
+      </c>
+      <c r="G13" s="17">
+        <v>451.2</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="32">
+        <v>106647</v>
+      </c>
+      <c r="D14" s="17">
+        <v>451.1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>218.4</v>
+      </c>
+      <c r="F14" s="17">
+        <v>298.5</v>
+      </c>
+      <c r="G14" s="17">
+        <v>401.7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="24">
+        <v>117196</v>
+      </c>
+      <c r="D15" s="17">
+        <v>486.5</v>
+      </c>
+      <c r="E15" s="17">
+        <v>233</v>
+      </c>
+      <c r="F15" s="17">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="G15" s="17">
+        <v>434</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="31" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="24">
+        <v>17036901</v>
+      </c>
+      <c r="D18" s="17">
+        <v>223.2</v>
+      </c>
+      <c r="E18" s="17">
+        <v>187.8</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="32">
+        <v>3911317</v>
+      </c>
+      <c r="D19" s="17">
+        <v>525.79999999999995</v>
+      </c>
+      <c r="E19" s="17">
+        <v>266.7</v>
+      </c>
+      <c r="F19" s="17">
+        <v>374.3</v>
+      </c>
+      <c r="G19" s="17">
+        <v>531.9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="24">
+        <v>249000</v>
+      </c>
+      <c r="D20" s="17">
+        <v>536.70000000000005</v>
+      </c>
+      <c r="E20" s="17">
+        <v>259.39999999999998</v>
+      </c>
+      <c r="F20" s="17">
+        <v>363.8</v>
+      </c>
+      <c r="G20" s="17">
+        <v>515.29999999999995</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="32">
-        <v>9456418</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="25">
-        <v>245.6</v>
-      </c>
-      <c r="F5" s="25">
-        <v>218.6</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1659714</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24">
-        <v>646.20000000000005</v>
-      </c>
-      <c r="F6" s="25">
-        <v>316.10000000000002</v>
-      </c>
-      <c r="G6" s="26">
-        <v>455.3</v>
-      </c>
-      <c r="H6" s="26">
-        <v>682</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="23">
-        <v>142353</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24">
-        <v>625.6</v>
-      </c>
-      <c r="F7" s="25">
-        <v>309.7</v>
-      </c>
-      <c r="G7" s="26">
-        <v>444.7</v>
-      </c>
-      <c r="H7" s="26">
-        <v>658.6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="32">
-        <v>160198</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="25">
-        <v>693.7</v>
-      </c>
-      <c r="F8" s="25">
-        <v>327.60000000000002</v>
-      </c>
-      <c r="G8" s="26">
-        <v>477.1</v>
-      </c>
-      <c r="H8" s="26">
-        <v>725.5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="33"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="31" t="s">
+      <c r="C21" s="24">
+        <v>277394</v>
+      </c>
+      <c r="D21" s="17">
+        <v>588</v>
+      </c>
+      <c r="E21" s="17">
+        <v>280.3</v>
+      </c>
+      <c r="F21" s="17">
+        <v>399.4</v>
+      </c>
+      <c r="G21" s="17">
+        <v>579.79999999999995</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="34">
-        <v>8622539</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="26">
-        <v>228</v>
-      </c>
-      <c r="F12" s="26">
-        <v>182.6</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="22">
-        <v>1421324</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="26">
-        <v>532.20000000000005</v>
-      </c>
-      <c r="F13" s="26">
-        <v>258.2</v>
-      </c>
-      <c r="G13" s="26">
-        <v>355</v>
-      </c>
-      <c r="H13" s="26">
-        <v>485.2</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="22">
-        <v>106647</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="26">
-        <v>451.1</v>
-      </c>
-      <c r="F14" s="26">
-        <v>218.4</v>
-      </c>
-      <c r="G14" s="26">
-        <v>298.5</v>
-      </c>
-      <c r="H14" s="26">
-        <v>401.7</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="34">
-        <v>117196</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="26">
-        <v>486.5</v>
-      </c>
-      <c r="F15" s="26">
-        <v>233</v>
-      </c>
-      <c r="G15" s="26">
-        <v>321.60000000000002</v>
-      </c>
-      <c r="H15" s="26">
-        <v>434</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="34">
-        <v>18078957</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="26">
-        <v>236.9</v>
-      </c>
-      <c r="F18" s="26">
-        <v>197.9</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="22">
-        <v>3081038</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="26">
-        <v>588.1</v>
-      </c>
-      <c r="F19" s="26">
-        <v>283</v>
-      </c>
-      <c r="G19" s="26">
-        <v>398.1</v>
-      </c>
-      <c r="H19" s="26">
-        <v>569.29999999999995</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="34">
-        <v>249000</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="26">
-        <v>536.70000000000005</v>
-      </c>
-      <c r="F20" s="26">
-        <v>259.39999999999998</v>
-      </c>
-      <c r="G20" s="26">
-        <v>363.8</v>
-      </c>
-      <c r="H20" s="26">
-        <v>515.29999999999995</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="34">
-        <v>277394</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="26">
-        <v>588</v>
-      </c>
-      <c r="F21" s="26">
-        <v>280.3</v>
-      </c>
-      <c r="G21" s="26">
-        <v>399.4</v>
-      </c>
-      <c r="H21" s="26">
-        <v>579.79999999999995</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="29" t="str">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="19" t="str">
         <f>IF(SUM(C5,C12)=C18,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="29" t="str">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C29" s="19" t="str">
         <f>IF(SUM(C6,C13)=C19,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="29" t="str">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C30" s="19" t="str">
         <f>IF(SUM(C7,C14)=C20,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="29" t="str">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C31" s="19" t="str">
         <f>IF(SUM(C8,C15)=C21,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
@@ -1553,406 +1523,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="13"/>
-    <col min="4" max="4" width="5.9140625" style="13" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="13"/>
+    <col min="3" max="7" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24">
+        <v>5347295</v>
+      </c>
+      <c r="D5" s="17">
+        <v>138.9</v>
+      </c>
+      <c r="E5" s="17">
+        <v>121.9</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="17" t="s">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1077986</v>
+      </c>
+      <c r="D6" s="17">
+        <v>299.8</v>
+      </c>
+      <c r="E6" s="17">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>217.4</v>
+      </c>
+      <c r="G6" s="17">
+        <v>355.4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="24">
+        <v>68510</v>
+      </c>
+      <c r="D7" s="17">
+        <v>301.10000000000002</v>
+      </c>
+      <c r="E7" s="17">
+        <v>124.3</v>
+      </c>
+      <c r="F7" s="17">
+        <v>191.4</v>
+      </c>
+      <c r="G7" s="17">
+        <v>321.3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="24">
+        <v>65610</v>
+      </c>
+      <c r="D8" s="25">
+        <v>286.36088131412976</v>
+      </c>
+      <c r="E8" s="17">
+        <v>121.32179187985764</v>
+      </c>
+      <c r="F8" s="17">
+        <v>186.8</v>
+      </c>
+      <c r="G8" s="17">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="18" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="24">
+        <v>4142577</v>
+      </c>
+      <c r="D12" s="17">
+        <v>109.5</v>
+      </c>
+      <c r="E12" s="17">
+        <v>82.7</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="24">
+        <v>851723</v>
+      </c>
+      <c r="D13" s="17">
+        <v>221.6</v>
+      </c>
+      <c r="E13" s="17">
+        <v>86.4</v>
+      </c>
+      <c r="F13" s="17">
+        <v>128.1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>201</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="24">
+        <v>44392</v>
+      </c>
+      <c r="D14" s="17">
+        <v>187.8</v>
+      </c>
+      <c r="E14" s="17">
+        <v>65.7</v>
+      </c>
+      <c r="F14" s="17">
+        <v>98.1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="24">
+        <v>42248</v>
+      </c>
+      <c r="D15" s="17">
+        <v>177.3846719372352</v>
+      </c>
+      <c r="E15" s="17">
+        <v>63.2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>94.6</v>
+      </c>
+      <c r="G15" s="17">
+        <v>151.1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="24">
+        <v>9489872</v>
+      </c>
+      <c r="D18" s="17">
+        <v>124.3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>100.5</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1929709</v>
+      </c>
+      <c r="D19" s="17">
+        <v>259.39999999999998</v>
+      </c>
+      <c r="E19" s="17">
+        <v>110.8</v>
+      </c>
+      <c r="F19" s="17">
+        <v>165.8</v>
+      </c>
+      <c r="G19" s="17">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5385640</v>
-      </c>
-      <c r="E5" s="10">
-        <v>139.9</v>
-      </c>
-      <c r="F5" s="10">
-        <v>122.7</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="34">
-        <v>811172</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="26">
-        <v>315.8</v>
-      </c>
-      <c r="F6" s="26">
-        <v>133.19999999999999</v>
-      </c>
-      <c r="G6" s="26">
-        <v>204.9</v>
-      </c>
-      <c r="H6" s="26">
-        <v>343.8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9">
-        <v>68510</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
-        <v>301.10000000000002</v>
-      </c>
-      <c r="F7" s="10">
-        <v>124.3</v>
-      </c>
-      <c r="G7" s="10">
-        <v>191.4</v>
-      </c>
-      <c r="H7" s="10">
-        <v>321.3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="9">
-        <v>65610</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="35">
-        <v>286.36088131412976</v>
-      </c>
-      <c r="F8" s="10">
-        <v>121.32179187985764</v>
-      </c>
-      <c r="G8" s="10">
-        <v>186.8</v>
-      </c>
-      <c r="H8" s="10">
-        <v>314.10000000000002</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="9">
-        <v>4169387</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="F12" s="10">
-        <v>83.1</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="34">
-        <v>633551</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="26">
-        <v>237.2</v>
-      </c>
-      <c r="F13" s="26">
-        <v>84.7</v>
-      </c>
-      <c r="G13" s="26">
-        <v>127.3</v>
-      </c>
-      <c r="H13" s="26">
-        <v>204.5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="9">
-        <v>44392</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
-        <v>187.8</v>
-      </c>
-      <c r="F14" s="10">
-        <v>65.7</v>
-      </c>
-      <c r="G14" s="10">
-        <v>98.1</v>
-      </c>
-      <c r="H14" s="10">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="9">
-        <v>42248</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10">
-        <v>177.3846719372352</v>
-      </c>
-      <c r="F15" s="10">
-        <v>63.2</v>
-      </c>
-      <c r="G15" s="10">
-        <v>94.6</v>
-      </c>
-      <c r="H15" s="10">
-        <v>151.1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9">
-        <v>9555027</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10">
-        <v>125.2</v>
-      </c>
-      <c r="F18" s="10">
-        <v>101.1</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1444723</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="26">
-        <v>275.7</v>
-      </c>
-      <c r="F19" s="26">
-        <v>106.3</v>
-      </c>
-      <c r="G19" s="26">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="H19" s="26">
-        <v>263.5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="24">
         <v>112902</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
+      <c r="D20" s="17">
         <v>243.3</v>
       </c>
-      <c r="F20" s="10">
+      <c r="E20" s="17">
         <v>92</v>
       </c>
-      <c r="G20" s="10">
+      <c r="F20" s="17">
         <v>139.30000000000001</v>
       </c>
-      <c r="H20" s="10">
+      <c r="G20" s="17">
         <v>226.7</v>
       </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="24">
         <v>107858</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10">
+      <c r="D21" s="17">
         <v>230.8169002534496</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" s="17">
         <v>89.4</v>
       </c>
-      <c r="G21" s="10">
+      <c r="F21" s="17">
         <v>135.4</v>
       </c>
-      <c r="H21" s="10">
+      <c r="G21" s="17">
         <v>221.2</v>
       </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="13" t="str">
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="11" t="str">
         <f>IF(SUM(C5,C12)=C18,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="13" t="str">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C29" s="11" t="str">
         <f t="shared" ref="C29:C31" si="0">IF(SUM(C6,C13)=C19,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="13" t="str">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="13" t="str">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
       </c>
@@ -1966,373 +1928,384 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2F39B0-EB7D-46B3-BE58-64D3EE1B3A5F}">
   <dimension ref="B4:I23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.6640625" style="13"/>
-    <col min="8" max="8" width="10.58203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="2"/>
+    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.6640625" style="19"/>
+    <col min="8" max="8" width="10.58203125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="26">
+        <v>5607801</v>
+      </c>
+      <c r="D5" s="29">
+        <v>145.6</v>
+      </c>
+      <c r="E5" s="26">
+        <v>12789038</v>
+      </c>
+      <c r="F5" s="29">
+        <v>332.1</v>
+      </c>
+      <c r="G5" s="26">
+        <v>17895356</v>
+      </c>
+      <c r="H5" s="29">
+        <v>464.7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21">
-        <v>6194251</v>
-      </c>
-      <c r="D5" s="21">
-        <v>160.9</v>
-      </c>
-      <c r="E5" s="21">
-        <v>14575362</v>
-      </c>
-      <c r="F5" s="21">
-        <v>378.5</v>
-      </c>
-      <c r="G5" s="21">
-        <v>21014830</v>
-      </c>
-      <c r="H5" s="21">
-        <v>545.70000000000005</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="C6" s="26">
+        <v>1504232</v>
+      </c>
+      <c r="D6" s="29">
+        <v>418.4</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3575707</v>
+      </c>
+      <c r="F6" s="29">
+        <v>994.5</v>
+      </c>
+      <c r="G6" s="26">
+        <v>5086515</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1414.7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="26">
+        <v>105599</v>
+      </c>
+      <c r="D7" s="29">
+        <v>464</v>
+      </c>
+      <c r="E7" s="26">
+        <v>251258</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1104.0999999999999</v>
+      </c>
+      <c r="G7" s="26">
+        <v>356427</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1566.3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="27"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="27"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1678980</v>
-      </c>
-      <c r="D6" s="21">
-        <v>467</v>
-      </c>
-      <c r="E6" s="21">
-        <v>4108811</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1142.8</v>
-      </c>
-      <c r="G6" s="21">
-        <v>6017842</v>
-      </c>
-      <c r="H6" s="21">
-        <v>1673.8</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C11" s="26">
+        <v>5688175</v>
+      </c>
+      <c r="D11" s="29">
+        <v>150.4</v>
+      </c>
+      <c r="E11" s="26">
+        <v>14120285</v>
+      </c>
+      <c r="F11" s="29">
+        <v>373.3</v>
+      </c>
+      <c r="G11" s="26">
+        <v>20738064</v>
+      </c>
+      <c r="H11" s="29">
+        <v>548.29999999999995</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1434849</v>
+      </c>
+      <c r="D12" s="29">
+        <v>373.4</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3639560</v>
+      </c>
+      <c r="F12" s="29">
+        <v>947.1</v>
+      </c>
+      <c r="G12" s="26">
+        <v>5417680</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1409.8</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="26">
+        <v>84409</v>
+      </c>
+      <c r="D13" s="29">
+        <v>357</v>
+      </c>
+      <c r="E13" s="26">
+        <v>215796</v>
+      </c>
+      <c r="F13" s="29">
+        <v>912.8</v>
+      </c>
+      <c r="G13" s="26">
+        <v>322341</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1363.5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C14" s="27"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="C16" s="26">
+        <v>11295976</v>
+      </c>
+      <c r="D16" s="29">
+        <v>148</v>
+      </c>
+      <c r="E16" s="26">
+        <v>26909323</v>
+      </c>
+      <c r="F16" s="29">
+        <v>352.5</v>
+      </c>
+      <c r="G16" s="26">
+        <v>38633420</v>
+      </c>
+      <c r="H16" s="29">
+        <v>506.1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="26">
+        <v>2939081</v>
+      </c>
+      <c r="D17" s="29">
+        <v>395.1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>7215267</v>
+      </c>
+      <c r="F17" s="29">
+        <v>970</v>
+      </c>
+      <c r="G17" s="26">
+        <v>10504195</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1412.2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21">
-        <v>118025</v>
-      </c>
-      <c r="D7" s="21">
-        <v>518.70000000000005</v>
-      </c>
-      <c r="E7" s="21">
-        <v>286733</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1260</v>
-      </c>
-      <c r="G7" s="21">
-        <v>414419</v>
-      </c>
-      <c r="H7" s="21">
-        <v>1821.1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="21">
-        <v>6060567</v>
-      </c>
-      <c r="D11" s="21">
-        <v>160.19999999999999</v>
-      </c>
-      <c r="E11" s="21">
-        <v>15288601</v>
-      </c>
-      <c r="F11" s="21">
-        <v>404.2</v>
-      </c>
-      <c r="G11" s="21">
-        <v>22826472</v>
-      </c>
-      <c r="H11" s="21">
-        <v>603.5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1557451</v>
-      </c>
-      <c r="D12" s="21">
-        <v>405.3</v>
-      </c>
-      <c r="E12" s="21">
-        <v>4027146</v>
-      </c>
-      <c r="F12" s="21">
-        <v>1047.9000000000001</v>
-      </c>
-      <c r="G12" s="21">
-        <v>6114445</v>
-      </c>
-      <c r="H12" s="21">
-        <v>1591.1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="21">
-        <v>91618</v>
-      </c>
-      <c r="D13" s="21">
-        <v>387.5</v>
-      </c>
-      <c r="E13" s="21">
-        <v>237186</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1003.3</v>
-      </c>
-      <c r="G13" s="21">
-        <v>358434</v>
-      </c>
-      <c r="H13" s="21">
-        <v>1516.1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="21">
-        <v>12254818</v>
-      </c>
-      <c r="D16" s="21">
-        <v>160.6</v>
-      </c>
-      <c r="E16" s="21">
-        <v>29863963</v>
-      </c>
-      <c r="F16" s="21">
-        <v>391.3</v>
-      </c>
-      <c r="G16" s="21">
-        <v>43841302</v>
-      </c>
-      <c r="H16" s="21">
-        <v>574.4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="21">
-        <v>3236431</v>
-      </c>
-      <c r="D17" s="21">
-        <v>435.1</v>
-      </c>
-      <c r="E17" s="21">
-        <v>8135957</v>
-      </c>
-      <c r="F17" s="21">
-        <v>1093.8</v>
-      </c>
-      <c r="G17" s="21">
-        <v>12132287</v>
-      </c>
-      <c r="H17" s="21">
-        <v>1631</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="21">
-        <v>209643</v>
-      </c>
-      <c r="D18" s="21">
-        <v>451.8</v>
-      </c>
-      <c r="E18" s="21">
-        <v>523919</v>
-      </c>
-      <c r="F18" s="21">
-        <v>1129.2</v>
-      </c>
-      <c r="G18" s="21">
-        <v>772853</v>
-      </c>
-      <c r="H18" s="21">
-        <v>1665.7</v>
-      </c>
-      <c r="I18" t="s">
-        <v>35</v>
+      <c r="C18" s="26">
+        <v>190008</v>
+      </c>
+      <c r="D18" s="29">
+        <v>409.5</v>
+      </c>
+      <c r="E18" s="26">
+        <v>467054</v>
+      </c>
+      <c r="F18" s="29">
+        <v>1006.6</v>
+      </c>
+      <c r="G18" s="26">
+        <v>678768</v>
+      </c>
+      <c r="H18" s="29">
+        <v>1462.9</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="19" t="str">
         <f>IF(C5+C11=C16,"ok","revisar")</f>
         <v>ok</v>
       </c>
-      <c r="E21" s="13" t="str">
+      <c r="E21" s="19" t="str">
         <f>IF(E5+E11=E16,"ok","revisar")</f>
         <v>ok</v>
       </c>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="19" t="str">
         <f>IF(G5+G11=G16,"ok","revisar")</f>
         <v>ok</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="19" t="str">
         <f t="shared" ref="C22:C23" si="0">IF(C6+C12=C17,"ok","revisar")</f>
         <v>ok</v>
       </c>
-      <c r="E22" s="13" t="str">
+      <c r="E22" s="19" t="str">
         <f t="shared" ref="E22:E23" si="1">IF(E6+E12=E17,"ok","revisar")</f>
         <v>ok</v>
       </c>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="19" t="str">
         <f t="shared" ref="G22:G23" si="2">IF(G6+G12=G17,"ok","revisar")</f>
         <v>ok</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
       </c>
-      <c r="E23" s="13" t="str">
+      <c r="E23" s="19" t="str">
         <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-      <c r="G23" s="13" t="str">
+      <c r="G23" s="19" t="str">
         <f t="shared" si="2"/>
         <v>ok</v>
       </c>
@@ -2348,19 +2321,19 @@
   <dimension ref="B2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
@@ -2370,42 +2343,42 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Epidemiología/total_epnm.xlsx
+++ b/Epidemiología/total_epnm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135C151E-8C5A-41D8-A9F2-F08B58929810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE472136-A2BA-46CF-9070-9BD606A898A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="63">
   <si>
     <t>Sexo</t>
   </si>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1502,6 +1502,10 @@
         <f>IF(SUM(C6,C13)=C19,"ok","REVISAR")</f>
         <v>ok</v>
       </c>
+      <c r="D29" s="30">
+        <f>100*C8/C21</f>
+        <v>57.751068876760129</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C30" s="19" t="str">
@@ -1525,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55D492-D4A4-413C-8B30-82176E41C2CB}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Epidemiología/total_epnm.xlsx
+++ b/Epidemiología/total_epnm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dredondo\Dropbox\Transporte_interno\Máster\Ciencia de Datos\TFM\Epidemiología\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE472136-A2BA-46CF-9070-9BD606A898A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCCD023-B9AD-44C8-9D1D-9CF0BF2946A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1320" windowWidth="21340" windowHeight="17920" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="10" r:id="rId1"/>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F4DA2-4555-4318-B577-61845DD27555}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2F39B0-EB7D-46B3-BE58-64D3EE1B3A5F}">
   <dimension ref="B4:I23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" activeCellId="3" sqref="C11:D13 G11:H13 C16:D18 G16:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
